--- a/va_facility_data_2025-02-20/Yonkers VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Yonkers%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Yonkers VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Yonkers%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R48a46576ebaa499890587d148d7eab38"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re859904a621a4623b1b43fd486c147fe"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re284284b5b304e2eb2ece8b0bb1b21e9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3aa87b7e222e45c2843ad5ca012e686f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rccbe10be3e114c80aa20521d67ae7bcd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra9983bec4d85488cb76c67fe6b402d92"/>
   </x:sheets>
 </x:workbook>
 </file>
